--- a/aichan/547555227272573972_2021-07-15_13-13-56.xlsx
+++ b/aichan/547555227272573972_2021-07-15_13-13-56.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-19 11:31:42</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44396.48034722222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -602,10 +616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-18 19:07:23</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44395.79679398148</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -665,10 +677,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-18 13:19:56</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44395.55550925926</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -745,10 +755,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-18 11:06:20</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44395.46273148148</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -808,10 +816,8 @@
           <t>4934385521</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-18 08:47:46</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44395.36650462963</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -871,10 +877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-17 22:55:29</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44394.95519675926</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -938,10 +942,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:29:24</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44394.39541666667</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1009,10 +1011,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-17 09:29:15</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44394.3953125</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1080,10 +1080,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-17 06:14:27</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44394.26003472223</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1169,10 +1167,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-17 01:04:19</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44394.04466435185</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1236,10 +1232,8 @@
           <t>4917154620</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:24:49</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44393.93390046297</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1307,10 +1301,8 @@
           <t>4917154620</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-16 22:09:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44393.92328703704</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1382,10 +1374,8 @@
           <t>4923765527</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-16 20:34:37</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44393.85737268518</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1454,10 +1444,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-16 18:58:38</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44393.79071759259</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1525,10 +1513,8 @@
           <t>4914252789</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-16 16:08:26</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44393.67252314815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1592,10 +1578,8 @@
           <t>4920257038</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-16 11:56:32</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44393.49759259259</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1659,10 +1643,8 @@
           <t>4917154620</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-16 09:04:24</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44393.37805555556</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1730,10 +1712,8 @@
           <t>4913693611</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-16 05:25:34</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44393.22608796296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1805,10 +1785,8 @@
           <t>4918515894</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:52:42</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44393.07826388889</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1885,10 +1863,8 @@
           <t>4918503144</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-16 01:49:54</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44393.07631944444</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -1956,10 +1932,8 @@
           <t>4918239790</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:43:07</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44393.02994212963</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2032,10 +2006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:21:51</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44393.01517361111</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2103,10 +2075,8 @@
           <t>4918067889</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-16 00:13:18</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44393.00923611111</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2166,10 +2136,8 @@
           <t>4917655332</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-15 23:14:41</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44392.96853009259</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2245,10 +2213,8 @@
           <t>4917490170</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:53:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44392.95414351852</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2316,10 +2282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:46:31</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44392.9489699074</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2383,10 +2347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:17:39</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44392.92892361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2450,10 +2412,8 @@
           <t>4917154620</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:12:54</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44392.925625</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2525,10 +2485,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-15 22:03:54</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44392.919375</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2604,10 +2562,8 @@
           <t>4917027295</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:56:05</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44392.91394675926</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2685,10 +2641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:51:27</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44392.91072916667</v>
       </c>
       <c r="I32" t="n">
         <v>3</v>
@@ -2756,10 +2710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:31:05</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44392.89658564814</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2823,10 +2775,8 @@
           <t>4916661574</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-15 21:07:54</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44392.88048611111</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2894,10 +2844,8 @@
           <t>4916485223</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:43:35</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44392.86359953704</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -2961,10 +2909,8 @@
           <t>4916435505</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:37:10</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44392.85914351852</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3032,10 +2978,8 @@
           <t>4916406284</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:33:28</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44392.85657407407</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3107,10 +3051,8 @@
           <t>4916391883</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:31:38</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44392.85530092593</v>
       </c>
       <c r="I38" t="n">
         <v>1</v>
@@ -3174,10 +3116,8 @@
           <t>4916378475</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:30:12</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44392.85430555556</v>
       </c>
       <c r="I39" t="n">
         <v>3</v>
@@ -3245,10 +3185,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:58</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44392.85136574074</v>
       </c>
       <c r="I40" t="n">
         <v>18</v>
@@ -3316,10 +3254,8 @@
           <t>4915753411</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-15 20:25:56</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44392.85134259259</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3395,10 +3331,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:49:18</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44392.82590277777</v>
       </c>
       <c r="I42" t="n">
         <v>2</v>
@@ -3462,10 +3396,8 @@
           <t>4916056352</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:44:41</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44392.82269675926</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3541,10 +3473,8 @@
           <t>4913712192</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:34:59</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44392.81596064815</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3621,10 +3551,8 @@
           <t>4915970090</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:31:28</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44392.81351851852</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3688,10 +3616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:26:21</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44392.80996527777</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3767,10 +3693,8 @@
           <t>4915891802</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:21:18</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44392.80645833333</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3834,10 +3758,8 @@
           <t>4915881240</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:20:00</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44392.80555555555</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -3910,10 +3832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:14</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44392.80155092593</v>
       </c>
       <c r="I49" t="n">
         <v>9</v>
@@ -3989,10 +3909,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:14:09</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44392.80149305556</v>
       </c>
       <c r="I50" t="n">
         <v>4</v>
@@ -4068,10 +3986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:58</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44392.80136574074</v>
       </c>
       <c r="I51" t="n">
         <v>5</v>
@@ -4152,10 +4068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:13:54</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44392.80131944444</v>
       </c>
       <c r="I52" t="n">
         <v>5</v>
@@ -4231,10 +4145,8 @@
           <t>4915826173</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:12:39</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44392.80045138889</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4310,10 +4222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:05:23</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44392.79540509259</v>
       </c>
       <c r="I54" t="n">
         <v>4</v>
@@ -4389,10 +4299,8 @@
           <t>4915757633</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:03:44</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44392.79425925926</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4456,10 +4364,8 @@
           <t>4915753411</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:03:15</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44392.79392361111</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4527,10 +4433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-15 19:02:59</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44392.79373842593</v>
       </c>
       <c r="I57" t="n">
         <v>6</v>
@@ -4602,10 +4506,8 @@
           <t>4915630669</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:46:37</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44392.78237268519</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4669,10 +4571,8 @@
           <t>4913838993</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:22:58</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44392.76594907408</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4736,10 +4636,8 @@
           <t>4915325732</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-15 18:05:25</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44392.75376157407</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4803,10 +4701,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:56:51</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44392.7478125</v>
       </c>
       <c r="I61" t="n">
         <v>2</v>
@@ -4874,10 +4770,8 @@
           <t>4915198148</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:48:15</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44392.74184027778</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -4937,10 +4831,8 @@
           <t>4915164654</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:42:59</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44392.73818287037</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5004,10 +4896,8 @@
           <t>4915163635</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:42:31</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44392.7378587963</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5071,10 +4961,8 @@
           <t>4915160549</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:41:08</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44392.73689814815</v>
       </c>
       <c r="I65" t="n">
         <v>2</v>
@@ -5146,10 +5034,8 @@
           <t>4913947546</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:37:58</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44392.73469907408</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5213,10 +5099,8 @@
           <t>4915107861</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:34:55</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44392.73258101852</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5284,10 +5168,8 @@
           <t>4915111900</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:34:47</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44392.73248842593</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5355,10 +5237,8 @@
           <t>4915099154</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:33:31</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44392.7316087963</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5434,10 +5314,8 @@
           <t>4915057001</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:25:50</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44392.72627314815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5501,10 +5379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:25:47</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44392.72623842592</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5580,10 +5456,8 @@
           <t>4913659634</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:23:32</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44392.72467592593</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5659,10 +5533,8 @@
           <t>4915019822</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:22:15</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44392.72378472222</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5738,10 +5610,8 @@
           <t>4913856511</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:18:49</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44392.72140046296</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5802,10 +5672,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:17:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44392.72068287037</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -5873,10 +5741,8 @@
           <t>4914777044</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:10:54</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44392.71590277777</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -5944,10 +5810,8 @@
           <t>4913856793</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:06:39</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44392.71295138889</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6019,10 +5883,8 @@
           <t>4913856793</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:06:33</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44392.71288194445</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6094,10 +5956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-15 17:05:00</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44392.71180555555</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6171,10 +6031,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:57:25</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44392.70653935185</v>
       </c>
       <c r="I80" t="n">
         <v>3</v>
@@ -6242,10 +6100,8 @@
           <t>4914830280</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:51:09</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44392.7021875</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6313,10 +6169,8 @@
           <t>4914777044</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:42:46</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44392.69636574074</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6392,10 +6246,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:38:55</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44392.69369212963</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6471,10 +6323,8 @@
           <t>4914736655</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:36:46</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44392.69219907407</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6550,10 +6400,8 @@
           <t>4914702226</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:30:36</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44392.68791666667</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6621,10 +6469,8 @@
           <t>4913856793</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:29:46</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44392.68733796296</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6692,10 +6538,8 @@
           <t>4914690881</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:28:53</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44392.68672453704</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6763,10 +6607,8 @@
           <t>4914673575</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:26:21</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44392.68496527777</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6843,10 +6685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:26:08</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44392.68481481481</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -6914,10 +6754,8 @@
           <t>4914668371</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:25:33</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44392.68440972222</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -6982,10 +6820,8 @@
           <t>4914662506</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:24:40</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44392.6837962963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7057,10 +6893,8 @@
           <t>4913979513</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:23:10</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44392.68275462963</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7128,10 +6962,8 @@
           <t>4914631501</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:19:09</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44392.67996527778</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7207,10 +7039,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:18:49</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44392.6797337963</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7278,10 +7108,8 @@
           <t>4914599634</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:14:32</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44392.67675925926</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7356,10 +7184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:11:22</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44392.67456018519</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7423,10 +7249,8 @@
           <t>4914583222</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:11:18</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44392.67451388889</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7498,10 +7322,8 @@
           <t>4913768044</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:08:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44392.67239583333</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7573,10 +7395,8 @@
           <t>4914524565</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:02:00</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44392.66805555556</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7648,10 +7468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-15 16:00:54</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44392.66729166666</v>
       </c>
       <c r="I100" t="n">
         <v>16</v>
@@ -7723,10 +7541,8 @@
           <t>4913743877</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:59:54</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44392.66659722223</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7802,10 +7618,8 @@
           <t>4914508539</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:58:58</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44392.66594907407</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7881,10 +7695,8 @@
           <t>4914516339</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:58:57</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44392.6659375</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -7948,10 +7760,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:56:57</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44392.66454861111</v>
       </c>
       <c r="I104" t="n">
         <v>2</v>
@@ -8023,10 +7833,8 @@
           <t>4914495567</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:55:52</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44392.6637962963</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8090,10 +7898,8 @@
           <t>4914180843</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:54:07</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44392.66258101852</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8157,10 +7963,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:53:49</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44392.66237268518</v>
       </c>
       <c r="I107" t="n">
         <v>4</v>
@@ -8224,10 +8028,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:52:33</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44392.66149305556</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8291,10 +8093,8 @@
           <t>4913867953</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:49:57</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44392.6596875</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8370,10 +8170,8 @@
           <t>4914460241</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:49:42</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44392.65951388889</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8437,10 +8235,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:49:25</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44392.65931712963</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8508,10 +8304,8 @@
           <t>4914441261</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:45:56</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44392.65689814815</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8583,10 +8377,8 @@
           <t>4914421921</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:43:27</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44392.65517361111</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8654,10 +8446,8 @@
           <t>4914412448</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:41:17</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44392.65366898148</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8734,10 +8524,8 @@
           <t>4913693611</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:40:31</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44392.65313657407</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8809,10 +8597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:39:01</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44392.6520949074</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8876,10 +8662,8 @@
           <t>4913816495</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:37:54</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44392.65131944444</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -8947,10 +8731,8 @@
           <t>4913867953</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:37:35</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44392.65109953703</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9022,10 +8804,8 @@
           <t>4914372031</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:34:54</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44392.64923611111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9098,10 +8878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:34:49</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44392.64917824074</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9173,10 +8951,8 @@
           <t>4914367621</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:33:29</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44392.64825231482</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9248,10 +9024,8 @@
           <t>4914347877</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:30:26</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44392.64613425926</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9327,10 +9101,8 @@
           <t>4914345836</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:29:18</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44392.64534722222</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9402,10 +9174,8 @@
           <t>4913867953</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:53</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44392.64366898148</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9481,10 +9251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:49</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44392.64362268519</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9549,10 +9317,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:44</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44392.64356481482</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9612,10 +9378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:34</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44392.64344907407</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9675,10 +9439,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:28</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44392.64337962963</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9738,10 +9500,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:26:20</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44392.64328703703</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -9801,10 +9561,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:23:51</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44392.6415625</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9872,10 +9630,8 @@
           <t>4914307115</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:22:41</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44392.64075231482</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -9939,10 +9695,8 @@
           <t>4914259119</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:15:07</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44392.63549768519</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10010,10 +9764,8 @@
           <t>4914261671</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:14:45</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44392.63524305556</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10077,10 +9829,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:14:36</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44392.63513888889</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10148,10 +9898,8 @@
           <t>4914252789</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:14:18</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44392.63493055556</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10227,10 +9975,8 @@
           <t>4914229297</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:10:01</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44392.63195601852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10294,10 +10040,8 @@
           <t>4913850569</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:10:01</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44392.63195601852</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10373,10 +10117,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:09:51</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44392.63184027778</v>
       </c>
       <c r="I138" t="n">
         <v>3</v>
@@ -10452,10 +10194,8 @@
           <t>4914218677</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:08:08</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44392.63064814815</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10527,10 +10267,8 @@
           <t>4914217495</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:07:30</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44392.63020833334</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10606,10 +10344,8 @@
           <t>4914209257</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:07:07</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44392.62994212963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10681,10 +10417,8 @@
           <t>4914213571</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:07:03</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44392.62989583334</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10756,10 +10490,8 @@
           <t>4913856511</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:05:09</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44392.62857638889</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10819,10 +10551,8 @@
           <t>4914020217</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:04:13</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44392.62792824074</v>
       </c>
       <c r="I144" t="n">
         <v>1</v>
@@ -10894,10 +10624,8 @@
           <t>4913701922</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:04:08</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44392.62787037037</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -10965,10 +10693,8 @@
           <t>4914033100</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:03:47</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44392.62762731482</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11040,10 +10766,8 @@
           <t>4914180843</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:02:59</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44392.62707175926</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11115,10 +10839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:02:31</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44392.62674768519</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11182,10 +10904,8 @@
           <t>4914182803</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:01:24</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44392.62597222222</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11253,10 +10973,8 @@
           <t>4914180843</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-15 15:00:24</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44392.62527777778</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11320,10 +11038,8 @@
           <t>4914171069</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:58:55</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44392.62424768518</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11391,10 +11107,8 @@
           <t>4914167499</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:58:39</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44392.6240625</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11458,10 +11172,8 @@
           <t>4914163269</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:58:34</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44392.62400462963</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11529,10 +11241,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:57:52</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44392.62351851852</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11608,10 +11318,8 @@
           <t>4914157437</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:57:03</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44392.62295138889</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11683,10 +11391,8 @@
           <t>4914157303</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:56:59</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44392.62290509259</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11762,10 +11468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:56:24</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44392.6225</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -11829,10 +11533,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:56:13</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44392.62237268518</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -11901,10 +11603,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:54:53</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44392.62144675926</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -11972,10 +11672,8 @@
           <t>4914137748</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:53:28</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44392.62046296296</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12040,10 +11738,8 @@
           <t>4914137435</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:53:18</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44392.62034722222</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12111,10 +11807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:52:39</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44392.61989583333</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12182,10 +11876,8 @@
           <t>4913689349</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:52:19</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44392.61966435185</v>
       </c>
       <c r="I163" t="n">
         <v>1</v>
@@ -12258,10 +11950,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:57</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44392.61940972223</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12329,10 +12019,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:27</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44392.6190625</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12392,10 +12080,8 @@
           <t>4914126352</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:10</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44392.61886574074</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12463,10 +12149,8 @@
           <t>4914119724</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:51:04</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44392.61879629629</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12526,10 +12210,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:50:47</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44392.61859953704</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12606,10 +12288,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:49:32</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44392.61773148148</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12677,10 +12357,8 @@
           <t>4914116630</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:49:23</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44392.61762731482</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12752,10 +12430,8 @@
           <t>4914112611</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:49:11</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44392.61748842592</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12827,10 +12503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:48:51</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44392.61725694445</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -12898,10 +12572,8 @@
           <t>4914108999</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:48:49</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44392.6172337963</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -12977,10 +12649,8 @@
           <t>4913832093</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:48:34</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44392.61706018518</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13044,10 +12714,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:38</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44392.61641203704</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13123,10 +12791,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:27</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44392.61628472222</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13186,10 +12852,8 @@
           <t>4914105990</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:13</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44392.61612268518</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13257,10 +12921,8 @@
           <t>4914102596</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:47:10</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44392.61608796296</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13336,10 +12998,8 @@
           <t>4914097875</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:46:39</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44392.61572916667</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13411,10 +13071,8 @@
           <t>4914096066</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:45:41</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44392.61505787037</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13490,10 +13148,8 @@
           <t>4914092879</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:45:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44392.61495370371</v>
       </c>
       <c r="I181" t="n">
         <v>1</v>
@@ -13557,10 +13213,8 @@
           <t>4913867953</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:45:10</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44392.61469907407</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13632,10 +13286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:45:08</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44392.61467592593</v>
       </c>
       <c r="I183" t="n">
         <v>9</v>
@@ -13732,10 +13384,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:53</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44392.61450231481</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13795,10 +13445,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:51</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44392.61447916667</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -13862,10 +13510,8 @@
           <t>4914084381</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:48</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44392.61444444444</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -13933,10 +13579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:46</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44392.6144212963</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14012,10 +13656,8 @@
           <t>4914088029</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:38</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44392.6143287037</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
@@ -14079,10 +13721,8 @@
           <t>4914020217</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:44:34</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44392.6142824074</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14150,10 +13790,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:50</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44392.61377314815</v>
       </c>
       <c r="I190" t="n">
         <v>3</v>
@@ -14221,10 +13859,8 @@
           <t>4914086105</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:32</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44392.61356481481</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14288,10 +13924,8 @@
           <t>4914078283</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:43:01</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44392.61320601852</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14359,10 +13993,8 @@
           <t>4914080446</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:42:42</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44392.61298611111</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14438,10 +14070,8 @@
           <t>4914074142</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:42:28</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44392.61282407407</v>
       </c>
       <c r="I194" t="n">
         <v>1</v>
@@ -14509,10 +14139,8 @@
           <t>4914069823</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:42:23</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44392.6127662037</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14576,10 +14204,8 @@
           <t>4914058739</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:39:31</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44392.61077546296</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14655,10 +14281,8 @@
           <t>4914054398</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:39:30</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44392.61076388889</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14722,10 +14346,8 @@
           <t>4914060876</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:39:00</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44392.61041666667</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14793,10 +14415,8 @@
           <t>4914053051</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:38:45</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44392.61024305555</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -14868,10 +14488,8 @@
           <t>4913768044</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:38:41</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44392.61019675926</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -14943,10 +14561,8 @@
           <t>4914049147</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:38:03</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44392.60975694445</v>
       </c>
       <c r="I201" t="n">
         <v>1</v>
@@ -15006,10 +14622,8 @@
           <t>4914048372</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:37:38</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44392.60946759259</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15073,10 +14687,8 @@
           <t>4913979513</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:21</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44392.60857638889</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15140,10 +14752,8 @@
           <t>4913729547</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:14</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44392.60849537037</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15203,10 +14813,8 @@
           <t>4914042513</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:06</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44392.60840277778</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15280,10 +14888,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:36:02</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44392.60835648148</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15347,10 +14953,8 @@
           <t>4913705663</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:47</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44392.60818287037</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15410,10 +15014,8 @@
           <t>4913679705</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:19</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44392.6078587963</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15473,10 +15075,8 @@
           <t>4914036418</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:35:13</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44392.60778935185</v>
       </c>
       <c r="I209" t="n">
         <v>1</v>
@@ -15544,10 +15144,8 @@
           <t>4913768044</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:47</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44392.60748842593</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15611,10 +15209,8 @@
           <t>4914033100</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:43</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44392.60744212963</v>
       </c>
       <c r="I211" t="n">
         <v>2</v>
@@ -15682,10 +15278,8 @@
           <t>4914029548</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:34:26</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44392.60724537037</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15753,10 +15347,8 @@
           <t>4914028671</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:33:58</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44392.6069212963</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -15824,10 +15416,8 @@
           <t>4913774155</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:33:13</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44392.60640046297</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -15903,10 +15493,8 @@
           <t>4913800736</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:32:07</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44392.60563657407</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -15970,10 +15558,8 @@
           <t>4914020217</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:48</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44392.60541666667</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16045,10 +15631,8 @@
           <t>4914014359</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:31:34</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44392.60525462963</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16112,10 +15696,8 @@
           <t>4913705663</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:30:32</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44392.60453703703</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
@@ -16187,10 +15769,8 @@
           <t>4913985842</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:29:45</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44392.60399305556</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
@@ -16258,10 +15838,8 @@
           <t>4913980465</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:29:11</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44392.60359953704</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16337,10 +15915,8 @@
           <t>4913998216</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:28:11</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44392.60290509259</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16404,10 +15980,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:45</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44392.60260416667</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16475,10 +16049,8 @@
           <t>4914000142</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:40</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44392.60254629629</v>
       </c>
       <c r="I223" t="n">
         <v>1</v>
@@ -16544,10 +16116,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44392.6025</v>
       </c>
       <c r="I224" t="n">
         <v>1</v>
@@ -16611,10 +16181,8 @@
           <t>4913989754</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:28</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44392.60240740741</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16678,10 +16246,8 @@
           <t>4913980465</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:27:08</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44392.60217592592</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16745,10 +16311,8 @@
           <t>4913990584</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:40</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44392.60185185185</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -16820,10 +16384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:15</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44392.6015625</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -16895,10 +16457,8 @@
           <t>4913979513</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:08</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44392.60148148148</v>
       </c>
       <c r="I229" t="n">
         <v>1</v>
@@ -16966,10 +16526,8 @@
           <t>4913984563</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:26:07</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44392.60146990741</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17037,10 +16595,8 @@
           <t>4913978281</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:27</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44392.60100694445</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17104,10 +16660,8 @@
           <t>4913985842</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:20</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44392.60092592592</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17175,10 +16729,8 @@
           <t>4913689349</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:25:06</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44392.60076388889</v>
       </c>
       <c r="I233" t="n">
         <v>1</v>
@@ -17250,10 +16802,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:34</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44392.60039351852</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17317,10 +16867,8 @@
           <t>4913974218</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:25</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44392.60028935185</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17392,10 +16940,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:03</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44392.60003472222</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17459,10 +17005,8 @@
           <t>4913975650</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:24:00</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44392.6</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17549,10 +17093,8 @@
           <t>4913973324</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:23:57</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44392.59996527778</v>
       </c>
       <c r="I238" t="n">
         <v>1</v>
@@ -17620,10 +17162,8 @@
           <t>4913980465</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:23:53</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44392.59991898148</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17687,10 +17227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:14</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44392.59877314815</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17758,10 +17296,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:09</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44392.59871527777</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -17829,10 +17365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:22:08</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44392.5987037037</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -17908,10 +17442,8 @@
           <t>4913961953</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:21:53</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44392.59853009259</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -17987,10 +17519,8 @@
           <t>4913957637</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44392.5978587963</v>
       </c>
       <c r="I244" t="n">
         <v>1</v>
@@ -18054,10 +17584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:32</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44392.5975925926</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18133,10 +17661,8 @@
           <t>4913949261</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:27</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44392.59753472222</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18205,10 +17731,8 @@
           <t>4913953430</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:20:07</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44392.59730324074</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18276,10 +17800,8 @@
           <t>4913947876</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:39</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44392.59697916666</v>
       </c>
       <c r="I248" t="n">
         <v>1</v>
@@ -18343,10 +17865,8 @@
           <t>4913947546</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:28</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44392.59685185185</v>
       </c>
       <c r="I249" t="n">
         <v>8</v>
@@ -18410,10 +17930,8 @@
           <t>4913947404</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:23</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44392.59679398148</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18485,10 +18003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:21</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44392.59677083333</v>
       </c>
       <c r="I251" t="n">
         <v>6</v>
@@ -18552,10 +18068,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:19</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44392.59674768519</v>
       </c>
       <c r="I252" t="n">
         <v>1</v>
@@ -18623,10 +18137,8 @@
           <t>4913944465</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:19:14</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44392.59668981482</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18694,10 +18206,8 @@
           <t>4913946562</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:56</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44392.59648148148</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -18767,10 +18277,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:54</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44392.59645833333</v>
       </c>
       <c r="I255" t="n">
         <v>1</v>
@@ -18838,10 +18346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:43</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44392.59633101852</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -18913,10 +18419,8 @@
           <t>4913945808</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:31</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44392.59619212963</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -18988,10 +18492,8 @@
           <t>4913950132</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:22</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44392.59608796296</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19063,10 +18565,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:18:18</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44392.59604166666</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19134,10 +18634,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:16:39</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44392.59489583333</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19214,10 +18712,8 @@
           <t>4913936782</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:16:37</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44392.59487268519</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19289,10 +18785,8 @@
           <t>4913936323</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:16:24</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44392.59472222222</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19361,10 +18855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44392.59434027778</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19428,10 +18920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:51</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44392.59434027778</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19499,10 +18989,8 @@
           <t>4913915679</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:51</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44392.59434027778</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19570,10 +19058,8 @@
           <t>4913930217</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:30</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44392.59409722222</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19645,10 +19131,8 @@
           <t>4913926675</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:07</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44392.59383101852</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19716,10 +19200,8 @@
           <t>4913926572</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:15:04</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44392.5937962963</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -19791,10 +19273,8 @@
           <t>4913916816</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:40</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44392.59282407408</v>
       </c>
       <c r="I269" t="n">
         <v>1</v>
@@ -19870,10 +19350,8 @@
           <t>4913915679</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:13:03</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44392.59239583334</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -19945,10 +19423,8 @@
           <t>4913909384</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:51</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44392.59225694444</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20021,10 +19497,8 @@
           <t>4913908061</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:08</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44392.59175925926</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20100,10 +19574,8 @@
           <t>4913816495</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:12:07</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44392.59174768518</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20179,10 +19651,8 @@
           <t>4913907778</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:59</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44392.59165509259</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20258,10 +19728,8 @@
           <t>4913910457</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:49</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44392.59153935185</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20333,10 +19801,8 @@
           <t>4913910161</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:11:40</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44392.59143518518</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20396,10 +19862,8 @@
           <t>4913869795</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:58</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44392.59094907407</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20468,10 +19932,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:36</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44392.59069444444</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -20547,10 +20009,8 @@
           <t>4913866969</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:20</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44392.59050925926</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20614,10 +20074,8 @@
           <t>4913894143</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:10:07</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44392.5903587963</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -20685,10 +20143,8 @@
           <t>4913856793</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:09:42</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44392.59006944444</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20756,10 +20212,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:09:41</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44392.59005787037</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
@@ -20831,10 +20285,8 @@
           <t>4913895098</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:09:02</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44392.58960648148</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -20909,10 +20361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:08:52</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44392.58949074074</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -20980,10 +20430,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:08:18</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44392.58909722222</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21055,10 +20503,8 @@
           <t>4913821902</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:08:06</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44392.58895833333</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
@@ -21122,10 +20568,8 @@
           <t>4913883001</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:56</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44392.5888425926</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21199,10 +20643,8 @@
           <t>4913882568</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:43</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44392.58869212963</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
@@ -21278,10 +20720,8 @@
           <t>4913882337</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:36</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44392.58861111111</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21357,10 +20797,8 @@
           <t>4913689349</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:36</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44392.58861111111</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -21436,10 +20874,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:35</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44392.58859953703</v>
       </c>
       <c r="I291" t="n">
         <v>49</v>
@@ -21511,10 +20947,8 @@
           <t>4913885481</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:34</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44392.58858796296</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -21578,10 +21012,8 @@
           <t>4913885212</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:26</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44392.58849537037</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21658,10 +21090,8 @@
           <t>4913854878</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:26</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44392.58849537037</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -21733,10 +21163,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:10</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44392.58831018519</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21808,10 +21236,8 @@
           <t>4913878066</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:07:00</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44392.58819444444</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
@@ -21871,10 +21297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:47</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44392.58804398148</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -21934,10 +21358,8 @@
           <t>4913877499</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:43</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44392.58799768519</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22013,10 +21435,8 @@
           <t>4913873605</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:34</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44392.58789351852</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22084,10 +21504,8 @@
           <t>4913869795</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:17</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44392.58769675926</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22155,10 +21573,8 @@
           <t>4913869446</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:06:06</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44392.58756944445</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22230,10 +21646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:40</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44392.58726851852</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22297,10 +21711,8 @@
           <t>4913854878</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:36</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44392.58722222222</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22372,10 +21784,8 @@
           <t>4913867953</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:20</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44392.58703703704</v>
       </c>
       <c r="I304" t="n">
         <v>1</v>
@@ -22451,10 +21861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:14</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44392.58696759259</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
@@ -22531,10 +21939,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:08</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44392.58689814815</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
@@ -22602,10 +22008,8 @@
           <t>4913867335</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:01</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44392.58681712963</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22669,10 +22073,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:05:00</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44392.58680555555</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -22744,10 +22146,8 @@
           <t>4913863966</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:53</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44392.58672453704</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22811,10 +22211,8 @@
           <t>4913866969</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:51</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44392.58670138889</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -22901,10 +22299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:45</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44392.58663194445</v>
       </c>
       <c r="I311" t="n">
         <v>4</v>
@@ -22964,10 +22360,8 @@
           <t>4913865751</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:14</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44392.58627314815</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23035,10 +22429,8 @@
           <t>4913862562</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:10</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44392.58622685185</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23106,10 +22498,8 @@
           <t>4913858925</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:06</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44392.58618055555</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23174,10 +22564,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:04:05</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44392.58616898148</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23245,10 +22633,8 @@
           <t>4913858676</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:58</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44392.58608796296</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23324,10 +22710,8 @@
           <t>4913858448</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:51</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44392.58600694445</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23395,10 +22779,8 @@
           <t>4913854878</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:45</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44392.5859375</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23470,10 +22852,8 @@
           <t>4913858166</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:43</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44392.58591435185</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23545,10 +22925,8 @@
           <t>4913861574</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:40</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44392.58587962963</v>
       </c>
       <c r="I320" t="n">
         <v>1</v>
@@ -23616,10 +22994,8 @@
           <t>4913857744</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:29</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44392.58575231482</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
@@ -23695,10 +23071,8 @@
           <t>4913860883</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:19</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44392.58563657408</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23774,10 +23148,8 @@
           <t>4913856511</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:18</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44392.585625</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -23853,10 +23225,8 @@
           <t>4913853634</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:08</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44392.58550925926</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
@@ -23928,10 +23298,8 @@
           <t>4913860354</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:03:03</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44392.58545138889</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24004,10 +23372,8 @@
           <t>4913856793</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:59</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44392.58540509259</v>
       </c>
       <c r="I326" t="n">
         <v>6</v>
@@ -24079,10 +23445,8 @@
           <t>4913856511</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:49</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44392.58528935185</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24142,10 +23506,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:47</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44392.58526620371</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
@@ -24217,10 +23579,8 @@
           <t>4913852720</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:40</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44392.58518518518</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24296,10 +23656,8 @@
           <t>4913852006</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:18</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44392.58493055555</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24371,10 +23729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:12</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44392.58486111111</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
@@ -24446,10 +23802,8 @@
           <t>4913618752</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:11</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44392.58484953704</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -24521,10 +23875,8 @@
           <t>4913855007</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:02:02</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44392.58474537037</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24600,10 +23952,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:55</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44392.58466435185</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
@@ -24667,10 +24017,8 @@
           <t>4913847842</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:45</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44392.58454861111</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -24734,10 +24082,8 @@
           <t>4913850569</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:35</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44392.58443287037</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
@@ -24809,10 +24155,8 @@
           <t>4913850525</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:34</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44392.5844212963</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -24884,10 +24228,8 @@
           <t>4913846936</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:01:19</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44392.58424768518</v>
       </c>
       <c r="I338" t="n">
         <v>3</v>
@@ -24959,10 +24301,8 @@
           <t>4913843013</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:59</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44392.58401620371</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25034,10 +24374,8 @@
           <t>4913839067</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:51</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44392.58392361111</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25113,10 +24451,8 @@
           <t>4913838993</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:48</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44392.58388888889</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
@@ -25188,10 +24524,8 @@
           <t>4913842552</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:45</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44392.58385416667</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
@@ -25267,10 +24601,8 @@
           <t>4913821902</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:45</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44392.58385416667</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25338,10 +24670,8 @@
           <t>4913841766</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:20</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44392.58356481481</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
@@ -25417,10 +24747,8 @@
           <t>4913841690</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:18</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44392.58354166667</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
@@ -25496,10 +24824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:17</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44392.58353009259</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -25559,10 +24885,8 @@
           <t>4913837861</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:14</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44392.58349537037</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25630,10 +24954,8 @@
           <t>4913837689</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-15 14:00:08</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44392.58342592593</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25710,10 +25032,8 @@
           <t>4913836930</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:46</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44392.5831712963</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25785,10 +25105,8 @@
           <t>4913821902</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:44</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44392.58314814815</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25864,10 +25182,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:43</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44392.58313657407</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -25931,10 +25247,8 @@
           <t>4913840546</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:42</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44392.583125</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -25994,10 +25308,8 @@
           <t>4913840457</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:39</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44392.58309027777</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26057,10 +25369,8 @@
           <t>4913840066</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:27</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44392.58295138889</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26120,10 +25430,8 @@
           <t>4913724468</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:59:08</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44392.58273148148</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
@@ -26199,10 +25507,8 @@
           <t>4913679705</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:53</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44392.58255787037</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26278,10 +25584,8 @@
           <t>4913832093</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:52</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44392.5825462963</v>
       </c>
       <c r="I357" t="n">
         <v>1</v>
@@ -26353,10 +25657,8 @@
           <t>4913835134</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:52</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44392.5825462963</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26432,10 +25734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:49</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44392.58251157407</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -26507,10 +25807,8 @@
           <t>4913831826</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:45</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44392.58246527778</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26574,10 +25872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:37</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44392.58237268519</v>
       </c>
       <c r="I361" t="n">
         <v>1</v>
@@ -26653,10 +25949,8 @@
           <t>4913824446</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:32</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44392.58231481481</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26732,10 +26026,8 @@
           <t>4913719936</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:20</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44392.58217592593</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -26807,10 +26099,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:58:11</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44392.58207175926</v>
       </c>
       <c r="I364" t="n">
         <v>0</v>
@@ -26883,10 +26173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:58</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44392.5819212963</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -26946,10 +26234,8 @@
           <t>4913778178</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:57</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44392.58190972222</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27025,10 +26311,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:42</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44392.58173611111</v>
       </c>
       <c r="I367" t="n">
         <v>2</v>
@@ -27092,10 +26376,8 @@
           <t>4913826573</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:38</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44392.58168981481</v>
       </c>
       <c r="I368" t="n">
         <v>0</v>
@@ -27167,10 +26449,8 @@
           <t>4913826077</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:23</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44392.5815162037</v>
       </c>
       <c r="I369" t="n">
         <v>0</v>
@@ -27238,10 +26518,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:18</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44392.58145833333</v>
       </c>
       <c r="I370" t="n">
         <v>1</v>
@@ -27310,10 +26588,8 @@
           <t>4913786969</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:17</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44392.58144675926</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27389,10 +26665,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:15</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44392.58142361111</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
@@ -27456,10 +26730,8 @@
           <t>4913821902</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:15</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44392.58142361111</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
@@ -27527,10 +26799,8 @@
           <t>4913825737</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:57:12</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44392.58138888889</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27602,10 +26872,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:46</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44392.58108796296</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27669,10 +26937,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:36</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44392.58097222223</v>
       </c>
       <c r="I376" t="n">
         <v>1</v>
@@ -27744,10 +27010,8 @@
           <t>4913774155</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:36</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44392.58097222223</v>
       </c>
       <c r="I377" t="n">
         <v>2</v>
@@ -27811,10 +27075,8 @@
           <t>4913814498</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:34</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44392.58094907407</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -27878,10 +27140,8 @@
           <t>4913814287</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:28</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44392.58087962963</v>
       </c>
       <c r="I379" t="n">
         <v>7</v>
@@ -27953,10 +27213,8 @@
           <t>4913814045</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:20</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44392.58078703703</v>
       </c>
       <c r="I380" t="n">
         <v>0</v>
@@ -28024,10 +27282,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:16</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44392.58074074074</v>
       </c>
       <c r="I381" t="n">
         <v>0</v>
@@ -28099,10 +27355,8 @@
           <t>4913816738</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:11</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44392.58068287037</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28170,10 +27424,8 @@
           <t>4913816495</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:05</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44392.58061342593</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28237,10 +27489,8 @@
           <t>4913813375</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:56:00</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44392.58055555556</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28316,10 +27566,8 @@
           <t>4913786969</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:54</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44392.58048611111</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28391,10 +27639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:51</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44392.58045138889</v>
       </c>
       <c r="I386" t="n">
         <v>4</v>
@@ -28466,10 +27712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:36</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44392.58027777778</v>
       </c>
       <c r="I387" t="n">
         <v>14</v>
@@ -28545,10 +27789,8 @@
           <t>4913812559</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:35</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44392.5802662037</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28612,10 +27854,8 @@
           <t>4913812422</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:31</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44392.58021990741</v>
       </c>
       <c r="I389" t="n">
         <v>0</v>
@@ -28680,10 +27920,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:27</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44392.58017361111</v>
       </c>
       <c r="I390" t="n">
         <v>7</v>
@@ -28755,10 +27993,8 @@
           <t>4913705663</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:18</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44392.58006944445</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28830,10 +28066,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:10</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44392.57997685186</v>
       </c>
       <c r="I392" t="n">
         <v>1</v>
@@ -28902,10 +28136,8 @@
           <t>4913804714</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:10</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44392.57997685186</v>
       </c>
       <c r="I393" t="n">
         <v>1</v>
@@ -28973,10 +28205,8 @@
           <t>4913807635</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:55:08</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44392.5799537037</v>
       </c>
       <c r="I394" t="n">
         <v>0</v>
@@ -29048,10 +28278,8 @@
           <t>4913811291</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:55</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44392.57980324074</v>
       </c>
       <c r="I395" t="n">
         <v>0</v>
@@ -29119,10 +28347,8 @@
           <t>4913811114</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:50</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44392.57974537037</v>
       </c>
       <c r="I396" t="n">
         <v>4</v>
@@ -29190,10 +28416,8 @@
           <t>4913803720</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:41</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44392.5796412037</v>
       </c>
       <c r="I397" t="n">
         <v>0</v>
@@ -29265,10 +28489,8 @@
           <t>4913793639</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:11</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44392.57929398148</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29340,10 +28562,8 @@
           <t>4913786969</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:54:05</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44392.57922453704</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29411,10 +28631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:52</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44392.57907407408</v>
       </c>
       <c r="I400" t="n">
         <v>51</v>
@@ -29482,10 +28700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:52</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44392.57907407408</v>
       </c>
       <c r="I401" t="n">
         <v>0</v>
@@ -29553,10 +28769,8 @@
           <t>4913798978</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:44</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44392.57898148148</v>
       </c>
       <c r="I402" t="n">
         <v>0</v>
@@ -29616,10 +28830,8 @@
           <t>4913798758</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44392.57890046296</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29695,10 +28907,8 @@
           <t>4913801422</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:33</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44392.57885416667</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29770,10 +28980,8 @@
           <t>4913701922</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:31</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44392.57883101852</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -29841,10 +29049,8 @@
           <t>4913793742</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:15</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44392.57864583333</v>
       </c>
       <c r="I406" t="n">
         <v>0</v>
@@ -29916,10 +29122,8 @@
           <t>4913793731</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:15</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44392.57864583333</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -29991,10 +29195,8 @@
           <t>4913800736</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:14</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44392.57863425926</v>
       </c>
       <c r="I408" t="n">
         <v>1</v>
@@ -30062,10 +29264,8 @@
           <t>4913793639</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:53:12</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44392.57861111111</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30141,10 +29341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:41</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44392.57825231482</v>
       </c>
       <c r="I410" t="n">
         <v>2</v>
@@ -30212,10 +29410,8 @@
           <t>4913789453</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:36</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44392.57819444445</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30293,10 +29489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:34</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44392.5781712963</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30368,10 +29562,8 @@
           <t>4913796586</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:32</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44392.57814814815</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30448,10 +29640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:24</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44392.57805555555</v>
       </c>
       <c r="I414" t="n">
         <v>2</v>
@@ -30527,10 +29717,8 @@
           <t>4913788702</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:15</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44392.57795138889</v>
       </c>
       <c r="I415" t="n">
         <v>0</v>
@@ -30598,10 +29786,8 @@
           <t>4913774155</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:06</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44392.57784722222</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30669,10 +29855,8 @@
           <t>4913788302</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:04</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44392.57782407408</v>
       </c>
       <c r="I417" t="n">
         <v>3</v>
@@ -30736,10 +29920,8 @@
           <t>4913788234</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:52:03</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44392.5778125</v>
       </c>
       <c r="I418" t="n">
         <v>0</v>
@@ -30811,10 +29993,8 @@
           <t>4913786969</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:51:24</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44392.57736111111</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -30886,10 +30066,8 @@
           <t>4913778178</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:31</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44392.57674768518</v>
       </c>
       <c r="I420" t="n">
         <v>0</v>
@@ -30957,10 +30135,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:24</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44392.57666666667</v>
       </c>
       <c r="I421" t="n">
         <v>2</v>
@@ -31036,10 +30212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:23</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44392.57665509259</v>
       </c>
       <c r="I422" t="n">
         <v>5</v>
@@ -31111,10 +30285,8 @@
           <t>4913743877</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:22</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44392.57664351852</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31182,10 +30354,8 @@
           <t>4913777755</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:19</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44392.5766087963</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31250,10 +30420,8 @@
           <t>4913777497</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:11</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44392.57651620371</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
@@ -31325,10 +30493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:09</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44392.57649305555</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31392,10 +30558,8 @@
           <t>4913777398</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:08</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44392.57648148148</v>
       </c>
       <c r="I427" t="n">
         <v>4</v>
@@ -31463,10 +30627,8 @@
           <t>4913781537</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:50:00</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44392.57638888889</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
@@ -31542,10 +30704,8 @@
           <t>4913774155</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:59</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44392.57637731481</v>
       </c>
       <c r="I429" t="n">
         <v>4</v>
@@ -31609,10 +30769,8 @@
           <t>4913776771</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:50</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44392.57627314814</v>
       </c>
       <c r="I430" t="n">
         <v>10</v>
@@ -31684,10 +30842,8 @@
           <t>4913781131</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:48</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44392.57625</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31751,10 +30907,8 @@
           <t>4913776540</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:43</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44392.57619212963</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -31830,10 +30984,8 @@
           <t>4913773563</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:42</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44392.57618055555</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -31905,10 +31057,8 @@
           <t>4913743877</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:31</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44392.57605324074</v>
       </c>
       <c r="I434" t="n">
         <v>1</v>
@@ -31976,10 +31126,8 @@
           <t>4913772555</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:49:13</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44392.57584490741</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
@@ -32043,10 +31191,8 @@
           <t>4913764620</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:48</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44392.57555555556</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
@@ -32118,10 +31264,8 @@
           <t>4913764061</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:31</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44392.5753587963</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32189,10 +31333,8 @@
           <t>4913768044</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:48:16</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44392.57518518518</v>
       </c>
       <c r="I438" t="n">
         <v>4</v>
@@ -32264,10 +31406,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:59</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44392.57498842593</v>
       </c>
       <c r="I439" t="n">
         <v>7</v>
@@ -32343,10 +31483,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:49</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44392.57487268518</v>
       </c>
       <c r="I440" t="n">
         <v>11</v>
@@ -32414,10 +31552,8 @@
           <t>4913743877</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:49</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44392.57487268518</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
@@ -32493,10 +31629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:47</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44392.57484953704</v>
       </c>
       <c r="I442" t="n">
         <v>8</v>
@@ -32564,10 +31698,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:29</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44392.5746412037</v>
       </c>
       <c r="I443" t="n">
         <v>1</v>
@@ -32631,10 +31763,8 @@
           <t>4913765668</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:47:06</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44392.574375</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32702,10 +31832,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:51</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44392.57420138889</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32778,10 +31906,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:36</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44392.57402777778</v>
       </c>
       <c r="I446" t="n">
         <v>8</v>
@@ -32849,10 +31975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:31</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44392.5739699074</v>
       </c>
       <c r="I447" t="n">
         <v>1</v>
@@ -32924,10 +32048,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:30</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44392.57395833333</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33003,10 +32125,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:29</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44392.57394675926</v>
       </c>
       <c r="I449" t="n">
         <v>0</v>
@@ -33066,10 +32186,8 @@
           <t>4913756481</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:16</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44392.5737962963</v>
       </c>
       <c r="I450" t="n">
         <v>1</v>
@@ -33142,10 +32260,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:15</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44392.57378472222</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33221,10 +32337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:12</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44392.57375</v>
       </c>
       <c r="I452" t="n">
         <v>5</v>
@@ -33305,10 +32419,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:08</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44392.5737037037</v>
       </c>
       <c r="I453" t="n">
         <v>0</v>
@@ -33368,10 +32480,8 @@
           <t>4913749069</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:46:04</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44392.57365740741</v>
       </c>
       <c r="I454" t="n">
         <v>1</v>
@@ -33447,10 +32557,8 @@
           <t>4913755209</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:40</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44392.57337962963</v>
       </c>
       <c r="I455" t="n">
         <v>9</v>
@@ -33522,10 +32630,8 @@
           <t>4913744465</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:19</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44392.57313657407</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33593,10 +32699,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:14</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44392.5730787037</v>
       </c>
       <c r="I457" t="n">
         <v>0</v>
@@ -33660,10 +32764,8 @@
           <t>4913705663</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:06</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44392.57298611111</v>
       </c>
       <c r="I458" t="n">
         <v>2</v>
@@ -33727,10 +32829,8 @@
           <t>4913746987</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:03</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44392.57295138889</v>
       </c>
       <c r="I459" t="n">
         <v>0</v>
@@ -33798,10 +32898,8 @@
           <t>4913743877</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:45:02</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44392.57293981482</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -33869,10 +32967,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:44</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44392.57273148148</v>
       </c>
       <c r="I461" t="n">
         <v>0</v>
@@ -33940,10 +33036,8 @@
           <t>4913743186</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:42</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44392.57270833333</v>
       </c>
       <c r="I462" t="n">
         <v>0</v>
@@ -34019,10 +33113,8 @@
           <t>4913750718</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:40</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44392.57268518519</v>
       </c>
       <c r="I463" t="n">
         <v>0</v>
@@ -34094,10 +33186,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:18</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44392.57243055556</v>
       </c>
       <c r="I464" t="n">
         <v>2</v>
@@ -34173,10 +33263,8 @@
           <t>4913742294</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:17</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44392.57241898148</v>
       </c>
       <c r="I465" t="n">
         <v>1</v>
@@ -34252,10 +33340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:12</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44392.57236111111</v>
       </c>
       <c r="I466" t="n">
         <v>6</v>
@@ -34323,10 +33409,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:44:04</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44392.57226851852</v>
       </c>
       <c r="I467" t="n">
         <v>0</v>
@@ -34394,10 +33478,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:54</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44392.57215277778</v>
       </c>
       <c r="I468" t="n">
         <v>4</v>
@@ -34473,10 +33555,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:51</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44392.57211805556</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34552,10 +33632,8 @@
           <t>4913712192</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:43</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44392.57202546296</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34627,10 +33705,8 @@
           <t>4913738674</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:40</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44392.57199074074</v>
       </c>
       <c r="I471" t="n">
         <v>0</v>
@@ -34698,10 +33774,8 @@
           <t>4913738503</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:36</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44392.57194444445</v>
       </c>
       <c r="I472" t="n">
         <v>0</v>
@@ -34777,10 +33851,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:43:07</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44392.57160879629</v>
       </c>
       <c r="I473" t="n">
         <v>1</v>
@@ -34844,10 +33916,8 @@
           <t>4913729547</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:59</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44392.5715162037</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -34923,10 +33993,8 @@
           <t>4913729550</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:59</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44392.5715162037</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35003,10 +34071,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:46</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44392.57136574074</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35078,10 +34144,8 @@
           <t>4913728729</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:37</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44392.57126157408</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35149,10 +34213,8 @@
           <t>4913731395</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:27</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44392.57114583333</v>
       </c>
       <c r="I478" t="n">
         <v>1</v>
@@ -35212,10 +34274,8 @@
           <t>4913730925</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:42:13</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44392.57098379629</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35291,10 +34351,8 @@
           <t>4913719936</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:50</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44392.57071759259</v>
       </c>
       <c r="I480" t="n">
         <v>0</v>
@@ -35358,10 +34416,8 @@
           <t>4913724468</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:32</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44392.57050925926</v>
       </c>
       <c r="I481" t="n">
         <v>0</v>
@@ -35441,10 +34497,8 @@
           <t>4913724480</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:32</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44392.57050925926</v>
       </c>
       <c r="I482" t="n">
         <v>1</v>
@@ -35512,10 +34566,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:22</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44392.57039351852</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35587,10 +34639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:22</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44392.57039351852</v>
       </c>
       <c r="I484" t="n">
         <v>0</v>
@@ -35659,10 +34709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:07</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44392.57021990741</v>
       </c>
       <c r="I485" t="n">
         <v>0</v>
@@ -35743,10 +34791,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:41:05</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44392.57019675926</v>
       </c>
       <c r="I486" t="n">
         <v>2</v>
@@ -35806,10 +34852,8 @@
           <t>4913718235</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:59</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44392.57012731482</v>
       </c>
       <c r="I487" t="n">
         <v>1</v>
@@ -35873,10 +34917,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:35</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44392.56984953704</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -35944,10 +34986,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:17</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44392.56964120371</v>
       </c>
       <c r="I489" t="n">
         <v>0</v>
@@ -36023,10 +35063,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:16</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44392.56962962963</v>
       </c>
       <c r="I490" t="n">
         <v>0</v>
@@ -36086,10 +35124,8 @@
           <t>4913721543</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:11</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44392.56957175926</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36157,10 +35193,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:40:04</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44392.56949074074</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36232,10 +35266,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:49</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44392.56931712963</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36311,10 +35343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:44</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44392.56925925926</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36382,10 +35412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:40</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44392.56921296296</v>
       </c>
       <c r="I495" t="n">
         <v>0</v>
@@ -36461,10 +35489,8 @@
           <t>4913712192</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:32</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44392.56912037037</v>
       </c>
       <c r="I496" t="n">
         <v>0</v>
@@ -36536,10 +35562,8 @@
           <t>4913711113</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:02</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44392.56877314814</v>
       </c>
       <c r="I497" t="n">
         <v>0</v>
@@ -36615,10 +35639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:39:00</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44392.56875</v>
       </c>
       <c r="I498" t="n">
         <v>0</v>
@@ -36690,10 +35712,8 @@
           <t>4913689349</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:49</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44392.56862268518</v>
       </c>
       <c r="I499" t="n">
         <v>5</v>
@@ -36765,10 +35785,8 @@
           <t>4913710374</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:40</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44392.56851851852</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36844,10 +35862,8 @@
           <t>4913703277</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:34</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44392.56844907408</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36923,10 +35939,8 @@
           <t>4913702390</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:38:09</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44392.56815972222</v>
       </c>
       <c r="I502" t="n">
         <v>2</v>
@@ -36994,10 +36008,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:59</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44392.56804398148</v>
       </c>
       <c r="I503" t="n">
         <v>0</v>
@@ -37069,10 +36081,8 @@
           <t>4913701922</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:55</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44392.56799768518</v>
       </c>
       <c r="I504" t="n">
         <v>2</v>
@@ -37140,10 +36150,8 @@
           <t>4913701344</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:38</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44392.56780092593</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37219,10 +36227,8 @@
           <t>4913697769</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:26</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44392.56766203704</v>
       </c>
       <c r="I506" t="n">
         <v>0</v>
@@ -37298,10 +36304,8 @@
           <t>4913705663</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:23</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44392.56762731481</v>
       </c>
       <c r="I507" t="n">
         <v>7</v>
@@ -37365,10 +36369,8 @@
           <t>4913700643</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:17</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44392.56755787037</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37440,10 +36442,8 @@
           <t>4913705349</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:14</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44392.56752314815</v>
       </c>
       <c r="I509" t="n">
         <v>2</v>
@@ -37515,10 +36515,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:05</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44392.56741898148</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37594,10 +36592,8 @@
           <t>4913694875</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:37:01</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44392.56737268518</v>
       </c>
       <c r="I511" t="n">
         <v>0</v>
@@ -37673,10 +36669,8 @@
           <t>4913694480</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:50</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44392.56724537037</v>
       </c>
       <c r="I512" t="n">
         <v>1</v>
@@ -37752,10 +36746,8 @@
           <t>4913689349</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:39</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44392.56711805556</v>
       </c>
       <c r="I513" t="n">
         <v>40</v>
@@ -37827,10 +36819,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:36</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44392.56708333334</v>
       </c>
       <c r="I514" t="n">
         <v>1</v>
@@ -37902,10 +36892,8 @@
           <t>4913693827</t>
         </is>
       </c>
-      <c r="H515" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:32</t>
-        </is>
+      <c r="H515" s="1" t="n">
+        <v>44392.56703703704</v>
       </c>
       <c r="I515" t="n">
         <v>1</v>
@@ -37977,10 +36965,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H516" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:31</t>
-        </is>
+      <c r="H516" s="1" t="n">
+        <v>44392.56702546297</v>
       </c>
       <c r="I516" t="n">
         <v>2</v>
@@ -38044,10 +37030,8 @@
           <t>4913693611</t>
         </is>
       </c>
-      <c r="H517" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:26</t>
-        </is>
+      <c r="H517" s="1" t="n">
+        <v>44392.56696759259</v>
       </c>
       <c r="I517" t="n">
         <v>1</v>
@@ -38119,10 +37103,8 @@
           <t>4913679705</t>
         </is>
       </c>
-      <c r="H518" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:36:11</t>
-        </is>
+      <c r="H518" s="1" t="n">
+        <v>44392.56679398148</v>
       </c>
       <c r="I518" t="n">
         <v>1</v>
@@ -38190,10 +37172,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H519" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:59</t>
-        </is>
+      <c r="H519" s="1" t="n">
+        <v>44392.5666550926</v>
       </c>
       <c r="I519" t="n">
         <v>0</v>
@@ -38257,10 +37237,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H520" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:50</t>
-        </is>
+      <c r="H520" s="1" t="n">
+        <v>44392.56655092593</v>
       </c>
       <c r="I520" t="n">
         <v>0</v>
@@ -38336,10 +37314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H521" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:37</t>
-        </is>
+      <c r="H521" s="1" t="n">
+        <v>44392.56640046297</v>
       </c>
       <c r="I521" t="n">
         <v>1</v>
@@ -38411,10 +37387,8 @@
           <t>4913683736</t>
         </is>
       </c>
-      <c r="H522" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:35:34</t>
-        </is>
+      <c r="H522" s="1" t="n">
+        <v>44392.56636574074</v>
       </c>
       <c r="I522" t="n">
         <v>7</v>
@@ -38478,10 +37452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H523" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:47</t>
-        </is>
+      <c r="H523" s="1" t="n">
+        <v>44392.56582175926</v>
       </c>
       <c r="I523" t="n">
         <v>2</v>
@@ -38557,10 +37529,8 @@
           <t>4913685240</t>
         </is>
       </c>
-      <c r="H524" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:40</t>
-        </is>
+      <c r="H524" s="1" t="n">
+        <v>44392.56574074074</v>
       </c>
       <c r="I524" t="n">
         <v>2</v>
@@ -38624,10 +37594,8 @@
           <t>4913679705</t>
         </is>
       </c>
-      <c r="H525" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:40</t>
-        </is>
+      <c r="H525" s="1" t="n">
+        <v>44392.56574074074</v>
       </c>
       <c r="I525" t="n">
         <v>0</v>
@@ -38699,10 +37667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H526" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:34:18</t>
-        </is>
+      <c r="H526" s="1" t="n">
+        <v>44392.56548611111</v>
       </c>
       <c r="I526" t="n">
         <v>4</v>
@@ -38766,10 +37732,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H527" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:48</t>
-        </is>
+      <c r="H527" s="1" t="n">
+        <v>44392.56513888889</v>
       </c>
       <c r="I527" t="n">
         <v>0</v>
@@ -38846,10 +37810,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H528" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:41</t>
-        </is>
+      <c r="H528" s="1" t="n">
+        <v>44392.56505787037</v>
       </c>
       <c r="I528" t="n">
         <v>0</v>
@@ -38914,10 +37876,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H529" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:37</t>
-        </is>
+      <c r="H529" s="1" t="n">
+        <v>44392.56501157407</v>
       </c>
       <c r="I529" t="n">
         <v>1</v>
@@ -38984,10 +37944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H530" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:28</t>
-        </is>
+      <c r="H530" s="1" t="n">
+        <v>44392.56490740741</v>
       </c>
       <c r="I530" t="n">
         <v>115</v>
@@ -39059,10 +38017,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H531" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:23</t>
-        </is>
+      <c r="H531" s="1" t="n">
+        <v>44392.56484953704</v>
       </c>
       <c r="I531" t="n">
         <v>0</v>
@@ -39130,10 +38086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H532" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:33:04</t>
-        </is>
+      <c r="H532" s="1" t="n">
+        <v>44392.56462962963</v>
       </c>
       <c r="I532" t="n">
         <v>3</v>
@@ -39205,10 +38159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H533" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:59</t>
-        </is>
+      <c r="H533" s="1" t="n">
+        <v>44392.56457175926</v>
       </c>
       <c r="I533" t="n">
         <v>0</v>
@@ -39286,10 +38238,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H534" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:43</t>
-        </is>
+      <c r="H534" s="1" t="n">
+        <v>44392.56438657407</v>
       </c>
       <c r="I534" t="n">
         <v>1</v>
@@ -39357,10 +38307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H535" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:32</t>
-        </is>
+      <c r="H535" s="1" t="n">
+        <v>44392.56425925926</v>
       </c>
       <c r="I535" t="n">
         <v>1</v>
@@ -39424,10 +38372,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H536" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:25</t>
-        </is>
+      <c r="H536" s="1" t="n">
+        <v>44392.56417824074</v>
       </c>
       <c r="I536" t="n">
         <v>0</v>
@@ -39503,10 +38449,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H537" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:17</t>
-        </is>
+      <c r="H537" s="1" t="n">
+        <v>44392.56408564815</v>
       </c>
       <c r="I537" t="n">
         <v>3</v>
@@ -39582,10 +38526,8 @@
           <t>4913622205</t>
         </is>
       </c>
-      <c r="H538" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:11</t>
-        </is>
+      <c r="H538" s="1" t="n">
+        <v>44392.5640162037</v>
       </c>
       <c r="I538" t="n">
         <v>1</v>
@@ -39661,10 +38603,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H539" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:07</t>
-        </is>
+      <c r="H539" s="1" t="n">
+        <v>44392.56396990741</v>
       </c>
       <c r="I539" t="n">
         <v>2</v>
@@ -39740,10 +38680,8 @@
           <t>4913659634</t>
         </is>
       </c>
-      <c r="H540" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:04</t>
-        </is>
+      <c r="H540" s="1" t="n">
+        <v>44392.56393518519</v>
       </c>
       <c r="I540" t="n">
         <v>0</v>
@@ -39815,10 +38753,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H541" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:32:00</t>
-        </is>
+      <c r="H541" s="1" t="n">
+        <v>44392.56388888889</v>
       </c>
       <c r="I541" t="n">
         <v>0</v>
@@ -39894,10 +38830,8 @@
           <t>4913658297</t>
         </is>
       </c>
-      <c r="H542" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:25</t>
-        </is>
+      <c r="H542" s="1" t="n">
+        <v>44392.56348379629</v>
       </c>
       <c r="I542" t="n">
         <v>0</v>
@@ -39969,10 +38903,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H543" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:09</t>
-        </is>
+      <c r="H543" s="1" t="n">
+        <v>44392.56329861111</v>
       </c>
       <c r="I543" t="n">
         <v>0</v>
@@ -40040,10 +38972,8 @@
           <t>4913648944</t>
         </is>
       </c>
-      <c r="H544" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:31:04</t>
-        </is>
+      <c r="H544" s="1" t="n">
+        <v>44392.56324074074</v>
       </c>
       <c r="I544" t="n">
         <v>0</v>
@@ -40107,10 +39037,8 @@
           <t>4913656913</t>
         </is>
       </c>
-      <c r="H545" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:47</t>
-        </is>
+      <c r="H545" s="1" t="n">
+        <v>44392.56304398148</v>
       </c>
       <c r="I545" t="n">
         <v>2</v>
@@ -40182,10 +39110,8 @@
           <t>4913648944</t>
         </is>
       </c>
-      <c r="H546" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:41</t>
-        </is>
+      <c r="H546" s="1" t="n">
+        <v>44392.56297453704</v>
       </c>
       <c r="I546" t="n">
         <v>0</v>
@@ -40249,10 +39175,8 @@
           <t>4913656710</t>
         </is>
       </c>
-      <c r="H547" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:41</t>
-        </is>
+      <c r="H547" s="1" t="n">
+        <v>44392.56297453704</v>
       </c>
       <c r="I547" t="n">
         <v>6</v>
@@ -40318,10 +39242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H548" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:30:34</t>
-        </is>
+      <c r="H548" s="1" t="n">
+        <v>44392.56289351852</v>
       </c>
       <c r="I548" t="n">
         <v>108</v>
@@ -40386,10 +39308,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H549" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:56</t>
-        </is>
+      <c r="H549" s="1" t="n">
+        <v>44392.5624537037</v>
       </c>
       <c r="I549" t="n">
         <v>0</v>
@@ -40453,10 +39373,8 @@
           <t>4913648944</t>
         </is>
       </c>
-      <c r="H550" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:51</t>
-        </is>
+      <c r="H550" s="1" t="n">
+        <v>44392.56239583333</v>
       </c>
       <c r="I550" t="n">
         <v>0</v>
@@ -40524,10 +39442,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H551" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:23</t>
-        </is>
+      <c r="H551" s="1" t="n">
+        <v>44392.56207175926</v>
       </c>
       <c r="I551" t="n">
         <v>35</v>
@@ -40603,10 +39519,8 @@
           <t>4913639048</t>
         </is>
       </c>
-      <c r="H552" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:29:01</t>
-        </is>
+      <c r="H552" s="1" t="n">
+        <v>44392.56181712963</v>
       </c>
       <c r="I552" t="n">
         <v>4</v>
@@ -40678,10 +39592,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H553" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:51</t>
-        </is>
+      <c r="H553" s="1" t="n">
+        <v>44392.56170138889</v>
       </c>
       <c r="I553" t="n">
         <v>0</v>
@@ -40749,10 +39661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H554" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:19</t>
-        </is>
+      <c r="H554" s="1" t="n">
+        <v>44392.56133101852</v>
       </c>
       <c r="I554" t="n">
         <v>0</v>
@@ -40824,10 +39734,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H555" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:28:07</t>
-        </is>
+      <c r="H555" s="1" t="n">
+        <v>44392.56119212963</v>
       </c>
       <c r="I555" t="n">
         <v>1</v>
@@ -40899,10 +39807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H556" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:27:50</t>
-        </is>
+      <c r="H556" s="1" t="n">
+        <v>44392.56099537037</v>
       </c>
       <c r="I556" t="n">
         <v>1</v>
@@ -40974,10 +39880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H557" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:53</t>
-        </is>
+      <c r="H557" s="1" t="n">
+        <v>44392.56033564815</v>
       </c>
       <c r="I557" t="n">
         <v>1</v>
@@ -41045,10 +39949,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H558" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:36</t>
-        </is>
+      <c r="H558" s="1" t="n">
+        <v>44392.56013888889</v>
       </c>
       <c r="I558" t="n">
         <v>2</v>
@@ -41121,10 +40023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H559" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:35</t>
-        </is>
+      <c r="H559" s="1" t="n">
+        <v>44392.56012731481</v>
       </c>
       <c r="I559" t="n">
         <v>0</v>
@@ -41188,10 +40088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H560" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:31</t>
-        </is>
+      <c r="H560" s="1" t="n">
+        <v>44392.56008101852</v>
       </c>
       <c r="I560" t="n">
         <v>0</v>
@@ -41259,10 +40157,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H561" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:31</t>
-        </is>
+      <c r="H561" s="1" t="n">
+        <v>44392.56008101852</v>
       </c>
       <c r="I561" t="n">
         <v>0</v>
@@ -41338,10 +40234,8 @@
           <t>4913631378</t>
         </is>
       </c>
-      <c r="H562" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:28</t>
-        </is>
+      <c r="H562" s="1" t="n">
+        <v>44392.5600462963</v>
       </c>
       <c r="I562" t="n">
         <v>2</v>
@@ -41401,10 +40295,8 @@
           <t>4913622205</t>
         </is>
       </c>
-      <c r="H563" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:26:03</t>
-        </is>
+      <c r="H563" s="1" t="n">
+        <v>44392.55975694444</v>
       </c>
       <c r="I563" t="n">
         <v>4</v>
@@ -41468,10 +40360,8 @@
           <t>4913619994</t>
         </is>
       </c>
-      <c r="H564" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:52</t>
-        </is>
+      <c r="H564" s="1" t="n">
+        <v>44392.55962962963</v>
       </c>
       <c r="I564" t="n">
         <v>0</v>
@@ -41543,10 +40433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H565" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:50</t>
-        </is>
+      <c r="H565" s="1" t="n">
+        <v>44392.55960648148</v>
       </c>
       <c r="I565" t="n">
         <v>7</v>
@@ -41606,10 +40494,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H566" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:26</t>
-        </is>
+      <c r="H566" s="1" t="n">
+        <v>44392.5593287037</v>
       </c>
       <c r="I566" t="n">
         <v>0</v>
@@ -41673,10 +40559,8 @@
           <t>4913620762</t>
         </is>
       </c>
-      <c r="H567" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:26</t>
-        </is>
+      <c r="H567" s="1" t="n">
+        <v>44392.5593287037</v>
       </c>
       <c r="I567" t="n">
         <v>7</v>
@@ -41752,10 +40636,8 @@
           <t>4913618752</t>
         </is>
       </c>
-      <c r="H568" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:25:21</t>
-        </is>
+      <c r="H568" s="1" t="n">
+        <v>44392.55927083334</v>
       </c>
       <c r="I568" t="n">
         <v>14</v>
@@ -41824,10 +40706,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H569" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:57</t>
-        </is>
+      <c r="H569" s="1" t="n">
+        <v>44392.55899305556</v>
       </c>
       <c r="I569" t="n">
         <v>0</v>
@@ -41891,10 +40771,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H570" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:24:50</t>
-        </is>
+      <c r="H570" s="1" t="n">
+        <v>44392.55891203704</v>
       </c>
       <c r="I570" t="n">
         <v>2</v>
@@ -41958,10 +40836,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H571" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:05</t>
-        </is>
+      <c r="H571" s="1" t="n">
+        <v>44392.55769675926</v>
       </c>
       <c r="I571" t="n">
         <v>0</v>
@@ -42039,10 +40915,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H572" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:23:00</t>
-        </is>
+      <c r="H572" s="1" t="n">
+        <v>44392.55763888889</v>
       </c>
       <c r="I572" t="n">
         <v>3</v>
@@ -42102,10 +40976,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H573" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:10</t>
-        </is>
+      <c r="H573" s="1" t="n">
+        <v>44392.55706018519</v>
       </c>
       <c r="I573" t="n">
         <v>1</v>
@@ -42173,10 +41045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H574" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:22:09</t>
-        </is>
+      <c r="H574" s="1" t="n">
+        <v>44392.55704861111</v>
       </c>
       <c r="I574" t="n">
         <v>0</v>
@@ -42244,10 +41114,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H575" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:47</t>
-        </is>
+      <c r="H575" s="1" t="n">
+        <v>44392.55679398148</v>
       </c>
       <c r="I575" t="n">
         <v>19</v>
@@ -42311,10 +41179,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H576" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:45</t>
-        </is>
+      <c r="H576" s="1" t="n">
+        <v>44392.55677083333</v>
       </c>
       <c r="I576" t="n">
         <v>0</v>
@@ -42378,10 +41244,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H577" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:33</t>
-        </is>
+      <c r="H577" s="1" t="n">
+        <v>44392.55663194445</v>
       </c>
       <c r="I577" t="n">
         <v>1</v>
@@ -42449,10 +41313,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H578" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:21:00</t>
-        </is>
+      <c r="H578" s="1" t="n">
+        <v>44392.55625</v>
       </c>
       <c r="I578" t="n">
         <v>0</v>
@@ -42528,10 +41390,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H579" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:39</t>
-        </is>
+      <c r="H579" s="1" t="n">
+        <v>44392.55600694445</v>
       </c>
       <c r="I579" t="n">
         <v>25</v>
@@ -42599,10 +41459,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H580" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:34</t>
-        </is>
+      <c r="H580" s="1" t="n">
+        <v>44392.55594907407</v>
       </c>
       <c r="I580" t="n">
         <v>0</v>
@@ -42681,10 +41539,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H581" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:17</t>
-        </is>
+      <c r="H581" s="1" t="n">
+        <v>44392.55575231482</v>
       </c>
       <c r="I581" t="n">
         <v>823</v>
@@ -42760,10 +41616,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H582" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:11</t>
-        </is>
+      <c r="H582" s="1" t="n">
+        <v>44392.55568287037</v>
       </c>
       <c r="I582" t="n">
         <v>1</v>
@@ -42827,10 +41681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H583" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:20:07</t>
-        </is>
+      <c r="H583" s="1" t="n">
+        <v>44392.55563657408</v>
       </c>
       <c r="I583" t="n">
         <v>1</v>
@@ -42894,10 +41746,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H584" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:50</t>
-        </is>
+      <c r="H584" s="1" t="n">
+        <v>44392.55543981482</v>
       </c>
       <c r="I584" t="n">
         <v>14</v>
@@ -42965,10 +41815,8 @@
           <t>4913580204</t>
         </is>
       </c>
-      <c r="H585" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:42</t>
-        </is>
+      <c r="H585" s="1" t="n">
+        <v>44392.55534722222</v>
       </c>
       <c r="I585" t="n">
         <v>0</v>
@@ -43036,10 +41884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H586" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:19:07</t>
-        </is>
+      <c r="H586" s="1" t="n">
+        <v>44392.55494212963</v>
       </c>
       <c r="I586" t="n">
         <v>28</v>
@@ -43115,10 +41961,8 @@
           <t>4913580883</t>
         </is>
       </c>
-      <c r="H587" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:59</t>
-        </is>
+      <c r="H587" s="1" t="n">
+        <v>44392.55484953704</v>
       </c>
       <c r="I587" t="n">
         <v>0</v>
@@ -43194,10 +42038,8 @@
           <t>4913580204</t>
         </is>
       </c>
-      <c r="H588" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:40</t>
-        </is>
+      <c r="H588" s="1" t="n">
+        <v>44392.55462962963</v>
       </c>
       <c r="I588" t="n">
         <v>15</v>
@@ -43265,10 +42107,8 @@
           <t>4913573210</t>
         </is>
       </c>
-      <c r="H589" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:39</t>
-        </is>
+      <c r="H589" s="1" t="n">
+        <v>44392.55461805555</v>
       </c>
       <c r="I589" t="n">
         <v>0</v>
@@ -43336,10 +42176,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H590" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:36</t>
-        </is>
+      <c r="H590" s="1" t="n">
+        <v>44392.55458333333</v>
       </c>
       <c r="I590" t="n">
         <v>0</v>
@@ -43415,10 +42253,8 @@
           <t>4913572808</t>
         </is>
       </c>
-      <c r="H591" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:30</t>
-        </is>
+      <c r="H591" s="1" t="n">
+        <v>44392.55451388889</v>
       </c>
       <c r="I591" t="n">
         <v>1</v>
@@ -43486,10 +42322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H592" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:18:11</t>
-        </is>
+      <c r="H592" s="1" t="n">
+        <v>44392.55429398148</v>
       </c>
       <c r="I592" t="n">
         <v>0</v>
@@ -43557,10 +42391,8 @@
           <t>4913568612</t>
         </is>
       </c>
-      <c r="H593" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:59</t>
-        </is>
+      <c r="H593" s="1" t="n">
+        <v>44392.55415509259</v>
       </c>
       <c r="I593" t="n">
         <v>1</v>
@@ -43624,10 +42456,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H594" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:47</t>
-        </is>
+      <c r="H594" s="1" t="n">
+        <v>44392.55401620371</v>
       </c>
       <c r="I594" t="n">
         <v>3</v>
@@ -43695,10 +42525,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H595" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:43</t>
-        </is>
+      <c r="H595" s="1" t="n">
+        <v>44392.55396990741</v>
       </c>
       <c r="I595" t="n">
         <v>514</v>
@@ -43766,10 +42594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H596" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:41</t>
-        </is>
+      <c r="H596" s="1" t="n">
+        <v>44392.55394675926</v>
       </c>
       <c r="I596" t="n">
         <v>14</v>
@@ -43845,10 +42671,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H597" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:25</t>
-        </is>
+      <c r="H597" s="1" t="n">
+        <v>44392.55376157408</v>
       </c>
       <c r="I597" t="n">
         <v>0</v>
@@ -43916,10 +42740,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H598" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:13</t>
-        </is>
+      <c r="H598" s="1" t="n">
+        <v>44392.55362268518</v>
       </c>
       <c r="I598" t="n">
         <v>3</v>
@@ -43995,10 +42817,8 @@
           <t>4913559387</t>
         </is>
       </c>
-      <c r="H599" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:17:04</t>
-        </is>
+      <c r="H599" s="1" t="n">
+        <v>44392.55351851852</v>
       </c>
       <c r="I599" t="n">
         <v>0</v>
@@ -44070,10 +42890,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H600" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:50</t>
-        </is>
+      <c r="H600" s="1" t="n">
+        <v>44392.55335648148</v>
       </c>
       <c r="I600" t="n">
         <v>0</v>
@@ -44141,10 +42959,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H601" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:18</t>
-        </is>
+      <c r="H601" s="1" t="n">
+        <v>44392.55298611111</v>
       </c>
       <c r="I601" t="n">
         <v>0</v>
@@ -44216,10 +43032,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H602" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:11</t>
-        </is>
+      <c r="H602" s="1" t="n">
+        <v>44392.55290509259</v>
       </c>
       <c r="I602" t="n">
         <v>1</v>
@@ -44291,10 +43105,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H603" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:16:09</t>
-        </is>
+      <c r="H603" s="1" t="n">
+        <v>44392.55288194444</v>
       </c>
       <c r="I603" t="n">
         <v>0</v>
@@ -44371,10 +43183,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H604" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:45</t>
-        </is>
+      <c r="H604" s="1" t="n">
+        <v>44392.55260416667</v>
       </c>
       <c r="I604" t="n">
         <v>4</v>
@@ -44439,10 +43249,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H605" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:41</t>
-        </is>
+      <c r="H605" s="1" t="n">
+        <v>44392.55255787037</v>
       </c>
       <c r="I605" t="n">
         <v>0</v>
@@ -44514,10 +43322,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H606" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:39</t>
-        </is>
+      <c r="H606" s="1" t="n">
+        <v>44392.55253472222</v>
       </c>
       <c r="I606" t="n">
         <v>0</v>
@@ -44593,10 +43399,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H607" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:38</t>
-        </is>
+      <c r="H607" s="1" t="n">
+        <v>44392.55252314815</v>
       </c>
       <c r="I607" t="n">
         <v>7</v>
@@ -44660,10 +43464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H608" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:38</t>
-        </is>
+      <c r="H608" s="1" t="n">
+        <v>44392.55252314815</v>
       </c>
       <c r="I608" t="n">
         <v>0</v>
@@ -44739,10 +43541,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H609" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:35</t>
-        </is>
+      <c r="H609" s="1" t="n">
+        <v>44392.55248842593</v>
       </c>
       <c r="I609" t="n">
         <v>2</v>
@@ -44818,10 +43618,8 @@
           <t>4913552822</t>
         </is>
       </c>
-      <c r="H610" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:34</t>
-        </is>
+      <c r="H610" s="1" t="n">
+        <v>44392.55247685185</v>
       </c>
       <c r="I610" t="n">
         <v>0</v>
@@ -44881,10 +43679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H611" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:32</t>
-        </is>
+      <c r="H611" s="1" t="n">
+        <v>44392.55245370371</v>
       </c>
       <c r="I611" t="n">
         <v>0</v>
@@ -44957,10 +43753,8 @@
           <t>4913552632</t>
         </is>
       </c>
-      <c r="H612" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:30</t>
-        </is>
+      <c r="H612" s="1" t="n">
+        <v>44392.55243055556</v>
       </c>
       <c r="I612" t="n">
         <v>0</v>
@@ -45036,10 +43830,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H613" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:29</t>
-        </is>
+      <c r="H613" s="1" t="n">
+        <v>44392.55241898148</v>
       </c>
       <c r="I613" t="n">
         <v>1</v>
@@ -45103,10 +43895,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H614" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:18</t>
-        </is>
+      <c r="H614" s="1" t="n">
+        <v>44392.55229166667</v>
       </c>
       <c r="I614" t="n">
         <v>52</v>
@@ -45178,10 +43968,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H615" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:14</t>
-        </is>
+      <c r="H615" s="1" t="n">
+        <v>44392.55224537037</v>
       </c>
       <c r="I615" t="n">
         <v>1</v>
@@ -45257,10 +44045,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H616" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:13</t>
-        </is>
+      <c r="H616" s="1" t="n">
+        <v>44392.5522337963</v>
       </c>
       <c r="I616" t="n">
         <v>1</v>
@@ -45336,10 +44122,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H617" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:15:08</t>
-        </is>
+      <c r="H617" s="1" t="n">
+        <v>44392.55217592593</v>
       </c>
       <c r="I617" t="n">
         <v>0</v>
@@ -45419,10 +44203,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H618" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:58</t>
-        </is>
+      <c r="H618" s="1" t="n">
+        <v>44392.55206018518</v>
       </c>
       <c r="I618" t="n">
         <v>0</v>
@@ -45498,10 +44280,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H619" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:55</t>
-        </is>
+      <c r="H619" s="1" t="n">
+        <v>44392.55202546297</v>
       </c>
       <c r="I619" t="n">
         <v>0</v>
@@ -45577,10 +44357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H620" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:54</t>
-        </is>
+      <c r="H620" s="1" t="n">
+        <v>44392.55201388889</v>
       </c>
       <c r="I620" t="n">
         <v>0</v>
@@ -45656,10 +44434,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H621" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:52</t>
-        </is>
+      <c r="H621" s="1" t="n">
+        <v>44392.55199074074</v>
       </c>
       <c r="I621" t="n">
         <v>0</v>
@@ -45727,10 +44503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H622" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:51</t>
-        </is>
+      <c r="H622" s="1" t="n">
+        <v>44392.55197916667</v>
       </c>
       <c r="I622" t="n">
         <v>0</v>
@@ -45802,10 +44576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H623" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:50</t>
-        </is>
+      <c r="H623" s="1" t="n">
+        <v>44392.55196759259</v>
       </c>
       <c r="I623" t="n">
         <v>0</v>
@@ -45881,10 +44653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H624" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:48</t>
-        </is>
+      <c r="H624" s="1" t="n">
+        <v>44392.55194444444</v>
       </c>
       <c r="I624" t="n">
         <v>0</v>
@@ -45952,10 +44722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H625" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:42</t>
-        </is>
+      <c r="H625" s="1" t="n">
+        <v>44392.551875</v>
       </c>
       <c r="I625" t="n">
         <v>0</v>
@@ -46015,10 +44783,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H626" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:41</t>
-        </is>
+      <c r="H626" s="1" t="n">
+        <v>44392.55186342593</v>
       </c>
       <c r="I626" t="n">
         <v>9</v>
@@ -46090,10 +44856,8 @@
           <t>4913550696</t>
         </is>
       </c>
-      <c r="H627" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:40</t>
-        </is>
+      <c r="H627" s="1" t="n">
+        <v>44392.55185185185</v>
       </c>
       <c r="I627" t="n">
         <v>12</v>
@@ -46165,10 +44929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H628" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:37</t>
-        </is>
+      <c r="H628" s="1" t="n">
+        <v>44392.55181712963</v>
       </c>
       <c r="I628" t="n">
         <v>0</v>
@@ -46244,10 +45006,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H629" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:35</t>
-        </is>
+      <c r="H629" s="1" t="n">
+        <v>44392.55179398148</v>
       </c>
       <c r="I629" t="n">
         <v>0</v>
@@ -46315,10 +45075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H630" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:32</t>
-        </is>
+      <c r="H630" s="1" t="n">
+        <v>44392.55175925926</v>
       </c>
       <c r="I630" t="n">
         <v>0</v>
@@ -46394,10 +45152,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H631" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:32</t>
-        </is>
+      <c r="H631" s="1" t="n">
+        <v>44392.55175925926</v>
       </c>
       <c r="I631" t="n">
         <v>0</v>
@@ -46461,10 +45217,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H632" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:25</t>
-        </is>
+      <c r="H632" s="1" t="n">
+        <v>44392.55167824074</v>
       </c>
       <c r="I632" t="n">
         <v>4</v>
@@ -46532,10 +45286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H633" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:25</t>
-        </is>
+      <c r="H633" s="1" t="n">
+        <v>44392.55167824074</v>
       </c>
       <c r="I633" t="n">
         <v>88</v>
@@ -46611,10 +45363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H634" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:14</t>
-        </is>
+      <c r="H634" s="1" t="n">
+        <v>44392.55155092593</v>
       </c>
       <c r="I634" t="n">
         <v>1</v>
@@ -46678,10 +45428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H635" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:14</t>
-        </is>
+      <c r="H635" s="1" t="n">
+        <v>44392.55155092593</v>
       </c>
       <c r="I635" t="n">
         <v>1</v>
@@ -46745,10 +45493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H636" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:14</t>
-        </is>
+      <c r="H636" s="1" t="n">
+        <v>44392.55155092593</v>
       </c>
       <c r="I636" t="n">
         <v>0</v>
@@ -46816,10 +45562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H637" t="inlineStr">
-        <is>
-          <t>2021-07-15 13:14:07</t>
-        </is>
+      <c r="H637" s="1" t="n">
+        <v>44392.5514699074</v>
       </c>
       <c r="I637" t="n">
         <v>287</v>
